--- a/experiment/data.xlsx
+++ b/experiment/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gung/Documents/Virtual Machines.localized/Shared/mini-geni-project/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8475A52-05EC-6F42-8E80-A0D1346BACE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4D1B35-B3AB-EF4A-86B0-0436ABF8CA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9BBD4ABD-D0F9-1642-AD07-0863CEB854DA}"/>
   </bookViews>
@@ -2743,16 +2743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2780,15 +2780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3115,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93F262-5908-9740-9485-D0D0D3D8B763}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
